--- a/P0096/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0096/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28221"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0096\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C3ED95-8775-4BAC-B12B-87FEFC9EC9A5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -92,55 +92,49 @@
     <t>PALABRAS CLAVE</t>
   </si>
   <si>
+    <t>P0096</t>
+  </si>
+  <si>
     <t>PR0001</t>
   </si>
   <si>
+    <t>P 8.1. Bioacustica</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0096/02_PRODUCTOS/Convenio 15-027/Producto 8/P 8.1. Bioacustica.pdf</t>
+  </si>
+  <si>
+    <t>Instituto de Investigación de Recursos Alexander von Humbolt</t>
+  </si>
+  <si>
     <t>Universidad de Córdoba</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>El documento proporciona un estudio integral sobre la caracterización y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, un área crítica para la regulación hidrológica y ambiental en Colombia. La investigación tiene como objetivo restaurar y monitorear estos hábitats, que han sido impactados por la pérdida de vegetación, la agricultura y la minería. Emplea la recolección automatizada de datos acústicos para evaluar paisajes sonoros, integrando encuestas ornitológicas tradicionales con índices como el Índice de Complejidad Acústica (ACI), Índice de Diversidad Acústica (ADI) e Índice Bioacústico (BI) para evaluar la salud ecológica. El estudio enfatiza la importancia de la colaboración comunitaria y académica en los esfuerzos de restauración, recomendando medidas de protección para la ciénaga y el desarrollo de sistemas sustentables para preservar la biodiversidad. El documento subraya el papel de las aves como indicadores de perturbación del hábitat y destaca el monitoreo acústico como una herramienta valiosa para la evaluación ecológica y el seguimiento de la restauración</t>
+  </si>
+  <si>
     <t>Informe</t>
   </si>
   <si>
     <t>pdf</t>
   </si>
   <si>
+    <t>El estudio realizado en la región de La Mojana revela hallazgos significativos en cuanto a la diversidad y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats: Zapal, Ciénaga y vegetación ribereña. El ciénaga destaca como el macrohábitat con mayor diversidad de aves, albergando 89 especies durante la temporada baja de agua, y es particularmente importante para las aves migratorias, con 14 especies identificadas como migratorias. El monitoreo acústico, utilizando índices como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), demostró ser eficaz para evaluar paisajes sonoros y correlacionarse con datos censales de aves tradicionales.  El estudio enfatiza la importancia de integrar el monitoreo acústico con las evaluaciones ornitológicas para rastrear de manera efectiva los esfuerzos de restauración. También destaca la necesidad de colaboración comunitaria y académica para mejorar el monitoreo de la restauración y promover prácticas de manejo sustentable. Las recomendaciones incluyen implementar medidas de protección para la ciénaga y desarrollar sistemas productivos amigables con el medio ambiente para preservar la biodiversidad y las funciones ecológicas</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>El documento proporciona un análisis exhaustivo de las comunidades de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, centrándose en la fase inicial de restauración ecológica. Utiliza de manera efectiva técnicas de grabación tanto manuales como automatizadas para evaluar la diversidad acústica, lo cual es crucial para comprender la dinámica ecológica de la zona. El estudio identifica índices acústicos clave, como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), que muestran fuertes correlaciones con los datos tradicionales del censo de aves, validando así su uso en el monitoreo ecológico. Adicionalmente, el documento destaca los patrones temporales de la actividad del paisaje sonoro, señalando picos distintos en la actividad de aves e insectos a lo largo del día, que son consistentes en todos los hábitats estudiados. Sin embargo, si bien el documento está bien estructurado y proporciona información valiosa, podría beneficiarse de datos longitudinales más detallados para evaluar mejor los impactos a largo plazo de los esfuerzos de restauración. En general, los hallazgos del estudio son altamente relevantes para informar las estrategias de conservación y mejorar la resiliencia ecológica de la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>Monitoreo de Aves, Análisis del Paisaje sonoro, Diversidad Acústica, Región La Mojana, Macrohábitats, Restauración Ecológica, Índices de Biodiversidad, Registro Automatizado, Riqueza de Especies, Caracterización del Hábitat, Servicios Ecosistémicos, Rehabilitación de Humedales, Índice de Complejidad Acústica, Monitoreo Bioacústico, Conservación Ambiental</t>
+  </si>
+  <si>
     <t>PR0002</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PR0003</t>
-  </si>
-  <si>
-    <t>PR0004</t>
-  </si>
-  <si>
-    <t>P0096</t>
-  </si>
-  <si>
-    <t>P 8.1. Bioacustica</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0096/02_PRODUCTOS/Convenio 15-027/Producto 8/P 8.1. Bioacustica.pdf</t>
-  </si>
-  <si>
-    <t>Instituto de Investigación de Recursos Alexander von Humbolt</t>
-  </si>
-  <si>
-    <t>El documento proporciona un estudio integral sobre la caracterización y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, un área crítica para la regulación hidrológica y ambiental en Colombia. La investigación tiene como objetivo restaurar y monitorear estos hábitats, que han sido impactados por la pérdida de vegetación, la agricultura y la minería. Emplea la recolección automatizada de datos acústicos para evaluar paisajes sonoros, integrando encuestas ornitológicas tradicionales con índices como el Índice de Complejidad Acústica (ACI), Índice de Diversidad Acústica (ADI) e Índice Bioacústico (BI) para evaluar la salud ecológica. El estudio enfatiza la importancia de la colaboración comunitaria y académica en los esfuerzos de restauración, recomendando medidas de protección para la ciénaga y el desarrollo de sistemas sustentables para preservar la biodiversidad. El documento subraya el papel de las aves como indicadores de perturbación del hábitat y destaca el monitoreo acústico como una herramienta valiosa para la evaluación ecológica y el seguimiento de la restauración</t>
-  </si>
-  <si>
-    <t>El estudio realizado en la región de La Mojana revela hallazgos significativos en cuanto a la diversidad y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats: Zapal, Ciénaga y vegetación ribereña. El ciénaga destaca como el macrohábitat con mayor diversidad de aves, albergando 89 especies durante la temporada baja de agua, y es particularmente importante para las aves migratorias, con 14 especies identificadas como migratorias. El monitoreo acústico, utilizando índices como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), demostró ser eficaz para evaluar paisajes sonoros y correlacionarse con datos censales de aves tradicionales.  El estudio enfatiza la importancia de integrar el monitoreo acústico con las evaluaciones ornitológicas para rastrear de manera efectiva los esfuerzos de restauración. También destaca la necesidad de colaboración comunitaria y académica para mejorar el monitoreo de la restauración y promover prácticas de manejo sustentable. Las recomendaciones incluyen implementar medidas de protección para la ciénaga y desarrollar sistemas productivos amigables con el medio ambiente para preservar la biodiversidad y las funciones ecológicas</t>
-  </si>
-  <si>
-    <t>El documento proporciona un análisis exhaustivo de las comunidades de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, centrándose en la fase inicial de restauración ecológica. Utiliza de manera efectiva técnicas de grabación tanto manuales como automatizadas para evaluar la diversidad acústica, lo cual es crucial para comprender la dinámica ecológica de la zona. El estudio identifica índices acústicos clave, como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), que muestran fuertes correlaciones con los datos tradicionales del censo de aves, validando así su uso en el monitoreo ecológico. Adicionalmente, el documento destaca los patrones temporales de la actividad del paisaje sonoro, señalando picos distintos en la actividad de aves e insectos a lo largo del día, que son consistentes en todos los hábitats estudiados. Sin embargo, si bien el documento está bien estructurado y proporciona información valiosa, podría beneficiarse de datos longitudinales más detallados para evaluar mejor los impactos a largo plazo de los esfuerzos de restauración. En general, los hallazgos del estudio son altamente relevantes para informar las estrategias de conservación y mejorar la resiliencia ecológica de la región de La Mojana.</t>
-  </si>
-  <si>
-    <t>Monitoreo de Aves, Análisis del Paisaje sonoro, Diversidad Acústica, Región La Mojana, Macrohábitats, Restauración Ecológica, Índices de Biodiversidad, Registro Automatizado, Riqueza de Especies, Caracterización del Hábitat, Servicios Ecosistémicos, Rehabilitación de Humedales, Índice de Complejidad Acústica, Monitoreo Bioacústico, Conservación Ambiental</t>
   </si>
   <si>
     <t>P 14. Red de actores</t>
@@ -162,6 +156,15 @@
     <t>Liderazgo Comunitario, Partes Interesadas Clave, Manejo de Ecosistemas, Conservación de Humedales, Región La Mojana, Participación de la Comunidad, Gobernanza Ambiental, Análisis de Partes Interesadas, Conocimiento Local, Desarrollo Sostenible, Redes Sociales, Gobernanza Colaborativa, Política Ambiental, Compromiso Comunitario, Servicios Ecosistémicos</t>
   </si>
   <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>17-16-075-027ce-PERCEPCION</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0096/02_PRODUCTOS/Convenio 15-027/17-16-075-027ce-PERCEPCION.pdf</t>
+  </si>
+  <si>
     <t>El documento es un informe técnico que explora la caracterización cualitativa de los servicios ecosistémicos a través de percepciones comunitarias en la región de La Mojana, enfocándose específicamente en los municipios de Ayapel, San Benito Abad, y San Marcos. Realizados en colaboración con la Universidad de Córdoba, el estudio tiene como objetivo recopilar y analizar datos sobre la ecología del hábitat acuático y las percepciones del servicio ecosistémico, al tiempo que monitorea los humedales rehabilitados y promueve la participación de la comunidad en los procesos de rehabilitación de humedales. El objetivo primario es documentar los elementos socioculturales y ambientales de los territorios mediante el aprovechamiento del conocimiento local para comprender las conexiones entre las comunidades y su entorno, desafiando el dominio del conocimiento científico. La investigación clasifica los servicios ecosistémicos en servicios de aprovisionamiento, regulación y culturales, basados en el aporte de la comunidad, y destaca la importancia de los recursos naturales como humedales, ríos y bosques para el sustento local y las prácticas culturales. El estudio subraya la necesidad de conservación y manejo sustentable de estos ecosistemas para apoyar la biodiversidad y mantener las tradiciones culturales, proporcionando información valiosa sobre la gobernanza ambiental sostenible y la resiliencia en La Mojana.</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
     <t>La Mojana, servicios ecosistémicos, percepción comunitaria, caracterización cualitativa, biodiversidad, conocimientos tradicionales, prácticas culturales, mayordomía ambiental, flora y fauna local, seguridad alimentaria, manejo de humedales, elementos socioculturales, prácticas agrícolas, folclore, manejo sustentable de recursos.</t>
   </si>
   <si>
+    <t>PR0004</t>
+  </si>
+  <si>
     <t>17-16-075-027CE-MACROHABITATS</t>
   </si>
   <si>
@@ -193,17 +199,14 @@
     <t>Caracterización ambiental, Macrohábitats acuáticos, Arroyo, Ciénaga, Río, Caño, Microhábitats, Limnética, Litoral, Ribera, Bosque inundable drenado, Espejo de agua, Bosque inundable saturado, Canal, Riparia, Herbazal inundado, Bosque inundado, Canal, Orilla, Ecotono, Dinámica espacial, Caracterización fisicoquímica del agua, Oxígeno disuelto, Conductividad eléctrica, pH, DBO5, DQO, Fosfatos, Nitratos, Nitritos, Nitrógeno amoniacal, Sólidos disueltos, sulfatos, Coliformes totales, Coliformes fecales, Fosforo total, Nitrógeno total, Transparencia, Velocidad, Profundidad, Caudal, Biodiversidad, Suelo, Especies silvestres, Aves, Mamíferos, Escarabajos, Apide, Lepidoptera, Macro_suelos, Plantas, Macroinvertebrados, Herpetofauna, Peces, Fitoplancton, Zooplancton, Perifiton, San Marcos, San Benito de Abad, Sucre, Quebrada Aguasprietas, Ciénaga Las Flores, Río San Jorge, Caño Rabón, Zapales de los Beltrán</t>
   </si>
   <si>
-    <t>17-16-075-027ce-PERCEPCION</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0096/02_PRODUCTOS/Convenio 15-027/17-16-075-027ce-PERCEPCION.pdf</t>
+    <t>Esto es un test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -322,7 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -658,15 +660,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -674,6 +667,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -693,7 +695,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -984,10 +986,10 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -1004,7 +1006,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,231 +1062,231 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2">
         <v>2018</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="2">
         <v>2018</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="9" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2">
         <v>2018</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="O4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="Q4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>2018</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>48</v>
+        <v>24</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="O5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="Q5" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1304,8 +1306,10 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1324,7 +1328,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1354,15 +1358,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1506,28 +1501,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
--- a/P0096/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0096/09_FICHAS/N2-FP-INFORME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0096\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C3ED95-8775-4BAC-B12B-87FEFC9EC9A5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF60EC5F-CBF5-44A8-A958-856E68D03BA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>Caracterización ambiental, Macrohábitats acuáticos, Arroyo, Ciénaga, Río, Caño, Microhábitats, Limnética, Litoral, Ribera, Bosque inundable drenado, Espejo de agua, Bosque inundable saturado, Canal, Riparia, Herbazal inundado, Bosque inundado, Canal, Orilla, Ecotono, Dinámica espacial, Caracterización fisicoquímica del agua, Oxígeno disuelto, Conductividad eléctrica, pH, DBO5, DQO, Fosfatos, Nitratos, Nitritos, Nitrógeno amoniacal, Sólidos disueltos, sulfatos, Coliformes totales, Coliformes fecales, Fosforo total, Nitrógeno total, Transparencia, Velocidad, Profundidad, Caudal, Biodiversidad, Suelo, Especies silvestres, Aves, Mamíferos, Escarabajos, Apide, Lepidoptera, Macro_suelos, Plantas, Macroinvertebrados, Herpetofauna, Peces, Fitoplancton, Zooplancton, Perifiton, San Marcos, San Benito de Abad, Sucre, Quebrada Aguasprietas, Ciénaga Las Flores, Río San Jorge, Caño Rabón, Zapales de los Beltrán</t>
-  </si>
-  <si>
-    <t>Esto es un test</t>
   </si>
 </sst>
 </file>
@@ -986,7 +983,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1307,9 +1304,7 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/P0096/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0096/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0096\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0096/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF60EC5F-CBF5-44A8-A958-856E68D03BA6}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F5C8E4B8-5A9E-42AC-8445-E8940FEFDBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD8603A3-A39B-474D-B2D1-C3165AC5EFFD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
     <t>NA</t>
   </si>
   <si>
-    <t>El documento proporciona un estudio integral sobre la caracterización y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, un área crítica para la regulación hidrológica y ambiental en Colombia. La investigación tiene como objetivo restaurar y monitorear estos hábitats, que han sido impactados por la pérdida de vegetación, la agricultura y la minería. Emplea la recolección automatizada de datos acústicos para evaluar paisajes sonoros, integrando encuestas ornitológicas tradicionales con índices como el Índice de Complejidad Acústica (ACI), Índice de Diversidad Acústica (ADI) e Índice Bioacústico (BI) para evaluar la salud ecológica. El estudio enfatiza la importancia de la colaboración comunitaria y académica en los esfuerzos de restauración, recomendando medidas de protección para la ciénaga y el desarrollo de sistemas sustentables para preservar la biodiversidad. El documento subraya el papel de las aves como indicadores de perturbación del hábitat y destaca el monitoreo acústico como una herramienta valiosa para la evaluación ecológica y el seguimiento de la restauración</t>
+    <t>El documento contiene los resultados del estudio “Caracterización y monitoreo de aves y paisajes sonoros en tres macrohábitats de la región de La Mojana”. Este informe fue elaborado en el marco del convenio de cooperación No. 17-16-075-027CE.</t>
   </si>
   <si>
     <t>Informe</t>
@@ -122,16 +122,16 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>El estudio realizado en la región de La Mojana revela hallazgos significativos en cuanto a la diversidad y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats: Zapal, Ciénaga y vegetación ribereña. El ciénaga destaca como el macrohábitat con mayor diversidad de aves, albergando 89 especies durante la temporada baja de agua, y es particularmente importante para las aves migratorias, con 14 especies identificadas como migratorias. El monitoreo acústico, utilizando índices como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), demostró ser eficaz para evaluar paisajes sonoros y correlacionarse con datos censales de aves tradicionales.  El estudio enfatiza la importancia de integrar el monitoreo acústico con las evaluaciones ornitológicas para rastrear de manera efectiva los esfuerzos de restauración. También destaca la necesidad de colaboración comunitaria y académica para mejorar el monitoreo de la restauración y promover prácticas de manejo sustentable. Las recomendaciones incluyen implementar medidas de protección para la ciénaga y desarrollar sistemas productivos amigables con el medio ambiente para preservar la biodiversidad y las funciones ecológicas</t>
+    <t>El documento proporciona un estudio integral sobre la caracterización y monitoreo de especies de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana:  Zapal, Ciénaga y vegetación ribereña. Las ciénagas se destacan como el macrohábitat con mayor diversidad de aves, albergando 89 especies durante la temporada baja de agua, y es particularmente importante para las aves migratorias, con 14 especies identificadas como migratorias. También, establece un área crítica para la regulación hidrológica y ambiental en Colombia. Por otro lado, se realizó la recolección automatizada de datos acústicos para evaluar paisajes sonoros, integrando encuestas ornitológicas tradicionales con índices como el Índice de Complejidad Acústica (ACI), Índice de Diversidad Acústica (ADI) e Índice Bioacústico (BI) para evaluar la salud ecológica. El estudio enfatiza la importancia de integrar el monitoreo acústico con las evaluaciones ornitológicas para rastrear de manera efectiva los esfuerzos de restauración. También destaca la necesidad de colaboración comunitaria y académica para mejorar el monitoreo de la restauración y promover prácticas de manejo sustentable. Las recomendaciones incluyen implementar medidas de protección para la ciénaga y desarrollar sistemas productivos amigables con el medio ambiente para preservar la biodiversidad y las funciones ecológicas.</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>El documento proporciona un análisis exhaustivo de las comunidades de aves y paisajes sonoros en tres macrohábitats en la región de La Mojana, centrándose en la fase inicial de restauración ecológica. Utiliza de manera efectiva técnicas de grabación tanto manuales como automatizadas para evaluar la diversidad acústica, lo cual es crucial para comprender la dinámica ecológica de la zona. El estudio identifica índices acústicos clave, como el Índice de Complejidad Acústica (ACI), el Índice de Diversidad Acústica (ADI) y el Índice Bioacústico (BI), que muestran fuertes correlaciones con los datos tradicionales del censo de aves, validando así su uso en el monitoreo ecológico. Adicionalmente, el documento destaca los patrones temporales de la actividad del paisaje sonoro, señalando picos distintos en la actividad de aves e insectos a lo largo del día, que son consistentes en todos los hábitats estudiados. Sin embargo, si bien el documento está bien estructurado y proporciona información valiosa, podría beneficiarse de datos longitudinales más detallados para evaluar mejor los impactos a largo plazo de los esfuerzos de restauración. En general, los hallazgos del estudio son altamente relevantes para informar las estrategias de conservación y mejorar la resiliencia ecológica de la región de La Mojana.</t>
-  </si>
-  <si>
-    <t>Monitoreo de Aves, Análisis del Paisaje sonoro, Diversidad Acústica, Región La Mojana, Macrohábitats, Restauración Ecológica, Índices de Biodiversidad, Registro Automatizado, Riqueza de Especies, Caracterización del Hábitat, Servicios Ecosistémicos, Rehabilitación de Humedales, Índice de Complejidad Acústica, Monitoreo Bioacústico, Conservación Ambiental</t>
+    <t>El documento subraya el papel de las aves como indicadores de perturbación del hábitat y destaca el monitoreo acústico como una herramienta valiosa para la evaluación ecológica y el seguimiento de la restauración. En adición, los hallazgos del estudio son altamente relevantes para informar las estrategias de conservación y mejorar la resiliencia ecológica de la región de La Mojana.</t>
+  </si>
+  <si>
+    <t>Monitoreo de Aves, análisis del paisaje sonoro, diversidad acústica, La Mojana, macrohábitats, restauración ecológica, índices de biodiversidad, registro automatizado, riqueza de especies, caracterización del hábitat, servicios ecosistémicos, rehabilitación de humedales, índice de complejidad acústica, monitoreo bioacústico, conservación ambiental.</t>
   </si>
   <si>
     <t>PR0002</t>
@@ -147,13 +147,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">El documento destaca el papel crítico de los actores locales y las redes comunitarias en la gobernanza y manejo de los ecosistemas de humedales en la región de La Mojana. Destaca la importancia de identificar a los líderes locales que faciliten la comunicación y cooperación entre comunidades y organizaciones externas, lo cual es esencial para enfrentar los retos socioambientales y formular planes efectivos de rehabilitación.  El estudio subraya la necesidad de un análisis de actores para comprender los intereses e influencias de las partes interesadas, lo que ayuda en el desarrollo de procesos e iniciativas participativas que apoyen la rehabilitación del ecosistema y el bienestar de la comunidad. También destaca la participación de coinvestigadores locales y representantes de la comunidad, como pescadores y agricultores, quienes contribuyen a los esfuerzos de conservación.  Las recomendaciones incluyen el empoderamiento de las comunidades locales mediante el fomento de la capacidad para administrar los recursos de manera sostenible y la integración de las experiencias comunitarias en los modelos de gobernanza para garantizar una gestión equitativa de los recursos de los humedales. Convoca a fortalecer la comunicación y cooperación entre las comunidades locales y las instituciones externas para potenciar la efectividad de los proyectos ambientales y sociales en la región </t>
+    <t>El documento destaca el papel crítico de los actores locales y las redes comunitarias en la gobernanza y manejo de los ecosistemas de humedales en la región de La Mojana. Destaca la importancia de identificar a los líderes locales que faciliten la comunicación y cooperación entre comunidades y organizaciones externas, lo cual es esencial para enfrentar los retos socioambientales y formular planes efectivos de rehabilitación.  El estudio subraya la necesidad de un análisis de actores para comprender los intereses e influencias de las partes interesadas, lo que ayuda en el desarrollo de procesos e iniciativas participativas que apoyen la rehabilitación del ecosistema y el bienestar de la comunidad. También destaca la participación de coinvestigadores locales y representantes de la comunidad, como pescadores y agricultores, quienes contribuyen a los esfuerzos de conservación.  Las recomendaciones incluyen el empoderamiento de las comunidades locales mediante el fomento de la capacidad para administrar los recursos de manera sostenible y la integración de las experiencias comunitarias en los modelos de gobernanza para garantizar una gestión equitativa de los recursos de los humedales. Convoca a fortalecer la comunicación y cooperación entre las comunidades locales y las instituciones externas para potenciar la efectividad de los proyectos ambientales y sociales en la región. El documento contiene anexos dentro de documento</t>
   </si>
   <si>
     <t>El documento proporciona un análisis integral del papel de las redes comunitarias y los líderes locales en la gestión de los desafíos socioambientales en la región de La Mojana. Destaca efectivamente la importancia de la participación comunitaria y la integración del conocimiento local en los procesos de gobernanza, lo cual es crucial para la gestión sostenible de los ecosistemas. No obstante, el documento parece carecer de detalles específicos de publicación, como la fecha de publicación y el editor, lo que podría afectar su credibilidad y trazabilidad. Además, si bien el documento analiza la participación de diversas partes interesadas, podría beneficiarse de estudios de casos o ejemplos más detallados para ilustrar la aplicación práctica de sus hallazgos. A pesar de estas lagunas, el documento es muy relevante para la toma de decisiones, ya que proporciona información valiosa sobre la dinámica de la participación de la comunidad y el potencial de los modelos de gobernanza colaborativa para abordar los problemas ambientales y sociales de manera efectiva. En general, el documento sirve como un recurso útil para los encargados de formular políticas y los profesionales interesados en mejorar las estrategias de gestión ambiental basadas en la comunidad.</t>
   </si>
   <si>
-    <t>Liderazgo Comunitario, Partes Interesadas Clave, Manejo de Ecosistemas, Conservación de Humedales, Región La Mojana, Participación de la Comunidad, Gobernanza Ambiental, Análisis de Partes Interesadas, Conocimiento Local, Desarrollo Sostenible, Redes Sociales, Gobernanza Colaborativa, Política Ambiental, Compromiso Comunitario, Servicios Ecosistémicos</t>
+    <t>Liderazgo comunitario, partes interesadas clave, manejo de ecosistemas, conservación de humedales, región La Mojana, participación de la comunidad, gobernanza ambiental, análisis de partes Interesadas, conocimiento local, desarrollo sostenible, redes sociales, gobernanza colaborativa, política ambiental, compromiso comunitario, servicios ecosistémicos</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -175,7 +175,7 @@
     <t>El documento proporciona un análisis cualitativo integral de los servicios ecosistémicos en la región de La Mojana, enfocándose en las percepciones comunitarias. Destaca efectivamente la importancia de los conocimientos locales y las prácticas culturales en la comprensión y gestión de los servicios ecosistémicos, lo cual es un aspecto positivo ya que subraya el valor de integrar los conocimientos tradicionales con los esfuerzos modernos de conservación. El documento parece ser minucioso en su exploración de diversos servicios ecosistémicos, como aprovisionamiento, regulación y servicios culturales, y cómo estos son percibidos y utilizados por las comunidades locales. No obstante, hay algunas áreas en las que podría mejorarse el documento. Por ejemplo, carece de una fecha de publicación clara e información del editor, que son cruciales para hacer referencia y evaluar la credibilidad del documento. Además, si bien el documento proporciona información valiosa sobre las creencias y prácticas locales, puede beneficiarse de datos cuantitativos más detallados para complementar los hallazgos cualitativos, ofreciendo una perspectiva más equilibrada. Esto podría aumentar su pertinencia para la toma de decisiones, particularmente en la formulación de políticas y la gestión de recursos. En general, el documento es un recurso valioso para comprender las dimensiones socioculturales de los servicios ecosistémicos en La Mojana, pero podría fortalecerse abordando estas brechas y proporcionando datos más completos.</t>
   </si>
   <si>
-    <t>La Mojana, servicios ecosistémicos, percepción comunitaria, caracterización cualitativa, biodiversidad, conocimientos tradicionales, prácticas culturales, mayordomía ambiental, flora y fauna local, seguridad alimentaria, manejo de humedales, elementos socioculturales, prácticas agrícolas, folclore, manejo sustentable de recursos.</t>
+    <t>La Mojana, servicios ecosistémicos, Percepción comunitaria, Caracterización cualitativa, Biodiversidad, Conocimientos tradicionales, Prácticas culturales, Mayordomía ambiental, Flora y fauna local, Seguridad alimentaria, Manejo de humedales, Elementos socioculturales, Prácticas agrícolas, Folclore, Manejo sustentable de recursos.</t>
   </si>
   <si>
     <t>PR0004</t>
@@ -196,7 +196,7 @@
     <t>La relevancia del estudio es alta, ya que proporciona datos cruciales para la gestión y conservación de los humedales. Los hallazgos sobre la calidad del agua y la biodiversidad son fundamentales para la formulación de políticas y programas de conservación</t>
   </si>
   <si>
-    <t>Caracterización ambiental, Macrohábitats acuáticos, Arroyo, Ciénaga, Río, Caño, Microhábitats, Limnética, Litoral, Ribera, Bosque inundable drenado, Espejo de agua, Bosque inundable saturado, Canal, Riparia, Herbazal inundado, Bosque inundado, Canal, Orilla, Ecotono, Dinámica espacial, Caracterización fisicoquímica del agua, Oxígeno disuelto, Conductividad eléctrica, pH, DBO5, DQO, Fosfatos, Nitratos, Nitritos, Nitrógeno amoniacal, Sólidos disueltos, sulfatos, Coliformes totales, Coliformes fecales, Fosforo total, Nitrógeno total, Transparencia, Velocidad, Profundidad, Caudal, Biodiversidad, Suelo, Especies silvestres, Aves, Mamíferos, Escarabajos, Apide, Lepidoptera, Macro_suelos, Plantas, Macroinvertebrados, Herpetofauna, Peces, Fitoplancton, Zooplancton, Perifiton, San Marcos, San Benito de Abad, Sucre, Quebrada Aguasprietas, Ciénaga Las Flores, Río San Jorge, Caño Rabón, Zapales de los Beltrán</t>
+    <t>Caracterización ambiental, macrohábitats acuáticos, arroyo, ciénaga, río, caño, microhábitats, limnética, litoral, ribera, bosque inundable drenado, espejo de agua, bosque inundable saturado, canal, riparia, herbazal inundado, bosque inundado, canal, orilla, ecotono, dinámica espacial, caracterización fisicoquímica del agua, oxígeno disuelto, conductividad eléctrica, pH, DBO5, DQO, fosfatos, nitratos, nitritos, nitrógeno amoniacal, sólidos disueltos, sulfatos, coliformes totales, coliformes fecales, fosforo total, nitrógeno total, transparencia, velocidad, profundidad, caudal, biodiversidad, suelo, especies silvestres, aves, mamíferos, escarabajos, apide, lepidoptera, macro suelos, plantas, macroinvertebrados, herpetofauna, peces, fitoplancton, zooplancton, perifiton, San Marcos, San Benito de Abad, Sucre, quebrada Aguasprietas, ciénaga las Flores, río San Jorge, caño Rabón, zapales de los Beltrán</t>
   </si>
 </sst>
 </file>
@@ -983,15 +983,15 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="130.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
@@ -1059,7 +1059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -1102,20 +1102,20 @@
       <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1158,20 +1158,20 @@
       <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1214,13 +1214,13 @@
       <c r="N4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -1270,13 +1270,13 @@
       <c r="N5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="R5" s="2" t="s">
@@ -1353,6 +1353,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1496,19 +1505,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>